--- a/Data/Subgroup_I_30_1.xlsx
+++ b/Data/Subgroup_I_30_1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\AAAAA\Backup of ISRUC-Sleep Dataset\ISRUC_Sleep Complete version\Subgroup I\30\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/MDataSci/data601/project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ED29DE-1782-3A47-88B0-FA7A71549B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="6840"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24640" windowHeight="14280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,7 +239,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -331,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -339,8 +340,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -639,64 +638,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M883"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -718,14 +717,14 @@
       <c r="H2" s="4">
         <v>0</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -747,14 +746,14 @@
       <c r="H3" s="4">
         <v>0</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -776,12 +775,12 @@
       <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -803,14 +802,14 @@
       <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -832,12 +831,12 @@
       <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -859,14 +858,14 @@
       <c r="H7" s="4">
         <v>0</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="11">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -888,14 +887,14 @@
       <c r="H8" s="4">
         <v>0</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="L8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="M8" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -921,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -934,7 +933,7 @@
       <c r="D10" s="1">
         <v>95</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -947,7 +946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -970,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -993,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1016,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1246,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1292,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1315,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1361,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1384,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1453,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1660,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1683,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1719,7 +1718,7 @@
       <c r="D44" s="1">
         <v>85</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -1732,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1755,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1768,7 +1767,7 @@
       <c r="D46" s="1">
         <v>82</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -1781,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1794,7 +1793,7 @@
       <c r="D47" s="1">
         <v>79</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -1807,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1820,7 +1819,7 @@
       <c r="D48" s="1">
         <v>87</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -1833,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="D50" s="1">
         <v>89</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -1882,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1895,7 +1894,7 @@
       <c r="D51" s="1">
         <v>81</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -1908,7 +1907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1921,7 +1920,7 @@
       <c r="D52" s="1">
         <v>85</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -1934,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -1957,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -1970,7 +1969,7 @@
       <c r="D54" s="1">
         <v>92</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -1983,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -1996,7 +1995,7 @@
       <c r="D55" s="1">
         <v>81</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2009,7 +2008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2022,7 +2021,7 @@
       <c r="D56" s="1">
         <v>86</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2035,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2048,7 +2047,7 @@
       <c r="D57" s="1">
         <v>82</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2061,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2074,7 +2073,7 @@
       <c r="D58" s="1">
         <v>87</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2087,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2100,7 +2099,7 @@
       <c r="D59" s="1">
         <v>85</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2113,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2126,7 +2125,7 @@
       <c r="D60" s="1">
         <v>84</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2139,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2175,7 +2174,7 @@
       <c r="D62" s="1">
         <v>84</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -2188,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2211,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2224,7 +2223,7 @@
       <c r="D64" s="1">
         <v>89</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -2237,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2273,7 +2272,7 @@
       <c r="D66" s="1">
         <v>86</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -2286,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2322,7 +2321,7 @@
       <c r="D68" s="1">
         <v>89</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -2335,7 +2334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2358,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2381,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2417,7 +2416,7 @@
       <c r="D72" s="1">
         <v>83</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -2430,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2453,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2476,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2499,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2512,7 +2511,7 @@
       <c r="D76" s="1">
         <v>86</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -2525,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2663,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2686,7 +2685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2709,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2732,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -2837,7 +2836,7 @@
       <c r="D90" s="1">
         <v>92</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -2850,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -2873,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -2919,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -2942,7 +2941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -2965,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3011,7 +3010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3070,7 +3069,7 @@
       <c r="D100" s="1">
         <v>82</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -3083,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3096,7 +3095,7 @@
       <c r="D101" s="1">
         <v>86</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3109,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3132,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3155,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3168,7 +3167,7 @@
       <c r="D104" s="1">
         <v>86</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -3181,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3194,7 +3193,7 @@
       <c r="D105" s="1">
         <v>88</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -3207,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3230,7 +3229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3243,7 +3242,7 @@
       <c r="D107" s="1">
         <v>85</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -3256,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3269,7 +3268,7 @@
       <c r="D108" s="1">
         <v>90</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -3282,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3305,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3328,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3558,7 +3557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3604,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3627,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3663,7 +3662,7 @@
       <c r="D125" s="1">
         <v>89</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E125" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -3676,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3689,7 +3688,7 @@
       <c r="D126" s="1">
         <v>82</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -3702,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3715,7 +3714,7 @@
       <c r="D127" s="1">
         <v>83</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -3728,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3741,7 +3740,7 @@
       <c r="D128" s="1">
         <v>89</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -3754,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3777,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3790,7 +3789,7 @@
       <c r="D130" s="1">
         <v>91</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E130" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F130" s="2" t="s">
@@ -3803,7 +3802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="D132" s="1">
         <v>83</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="2" t="s">
@@ -3852,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3865,7 +3864,7 @@
       <c r="D133" s="1">
         <v>85</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F133" s="2" t="s">
@@ -3878,7 +3877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3891,7 +3890,7 @@
       <c r="D134" s="1">
         <v>89</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F134" s="2" t="s">
@@ -3904,7 +3903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3917,7 +3916,7 @@
       <c r="D135" s="1">
         <v>88</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F135" s="2" t="s">
@@ -3930,7 +3929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="D136" s="1">
         <v>83</v>
       </c>
-      <c r="E136" s="8" t="s">
+      <c r="E136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F136" s="2" t="s">
@@ -3956,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -4025,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -4048,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -4071,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -4094,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4140,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -4163,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -4209,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -4232,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -4255,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -4278,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -4301,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -4347,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -4416,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="D157" s="1">
         <v>89</v>
       </c>
-      <c r="E157" s="8" t="s">
+      <c r="E157" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F157" s="2" t="s">
@@ -4442,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -4488,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -4534,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -4580,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -4603,7 +4602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -4626,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -4649,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -4695,7 +4694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -4718,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -4741,7 +4740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -4764,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -4810,7 +4809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -4833,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -4879,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -4971,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -4994,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -5017,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -5040,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -5109,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -5145,7 +5144,7 @@
       <c r="D188" s="1">
         <v>89</v>
       </c>
-      <c r="E188" s="8" t="s">
+      <c r="E188" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F188" s="2" t="s">
@@ -5158,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -5171,7 +5170,7 @@
       <c r="D189" s="1">
         <v>87</v>
       </c>
-      <c r="E189" s="8" t="s">
+      <c r="E189" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F189" s="2" t="s">
@@ -5184,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -5253,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -5322,7 +5321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -5345,7 +5344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -5381,7 +5380,7 @@
       <c r="D198" s="1">
         <v>86</v>
       </c>
-      <c r="E198" s="8" t="s">
+      <c r="E198" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F198" s="2" t="s">
@@ -5394,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -5417,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -5499,7 +5498,7 @@
       <c r="D203" s="1">
         <v>83</v>
       </c>
-      <c r="E203" s="8" t="s">
+      <c r="E203" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F203" s="2" t="s">
@@ -5512,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -5535,7 +5534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -5581,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -5627,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -5719,7 +5718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -5742,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -5755,7 +5754,7 @@
       <c r="D214" s="1">
         <v>84</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F214" s="2" t="s">
@@ -5768,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -5791,7 +5790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -5814,7 +5813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -5883,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -5906,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -5929,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -5942,7 +5941,7 @@
       <c r="D222" s="1">
         <v>80</v>
       </c>
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F222" s="2" t="s">
@@ -5955,7 +5954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -5978,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -6001,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -6129,7 +6128,7 @@
       <c r="D230" s="1">
         <v>82</v>
       </c>
-      <c r="E230" s="8" t="s">
+      <c r="E230" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F230" s="2" t="s">
@@ -6142,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -6155,7 +6154,7 @@
       <c r="D231" s="1">
         <v>69</v>
       </c>
-      <c r="E231" s="8" t="s">
+      <c r="E231" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F231" s="2" t="s">
@@ -6168,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -6181,7 +6180,7 @@
       <c r="D232" s="1">
         <v>71</v>
       </c>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F232" s="2" t="s">
@@ -6194,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -6207,7 +6206,7 @@
       <c r="D233" s="1">
         <v>73</v>
       </c>
-      <c r="E233" s="8" t="s">
+      <c r="E233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F233" s="2" t="s">
@@ -6220,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -6233,7 +6232,7 @@
       <c r="D234" s="1">
         <v>73</v>
       </c>
-      <c r="E234" s="8" t="s">
+      <c r="E234" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F234" s="2" t="s">
@@ -6246,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -6259,7 +6258,7 @@
       <c r="D235" s="1">
         <v>78</v>
       </c>
-      <c r="E235" s="8" t="s">
+      <c r="E235" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F235" s="2" t="s">
@@ -6272,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -6285,7 +6284,7 @@
       <c r="D236" s="1">
         <v>78</v>
       </c>
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F236" s="2" t="s">
@@ -6298,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -6311,7 +6310,7 @@
       <c r="D237" s="1">
         <v>81</v>
       </c>
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F237" s="2" t="s">
@@ -6324,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -6360,7 +6359,7 @@
       <c r="D239" s="1">
         <v>72</v>
       </c>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F239" s="2" t="s">
@@ -6373,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -6386,7 +6385,7 @@
       <c r="D240" s="1">
         <v>80</v>
       </c>
-      <c r="E240" s="8" t="s">
+      <c r="E240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F240" s="2" t="s">
@@ -6399,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -6412,7 +6411,7 @@
       <c r="D241" s="1">
         <v>71</v>
       </c>
-      <c r="E241" s="8" t="s">
+      <c r="E241" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F241" s="2" t="s">
@@ -6425,7 +6424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -6438,7 +6437,7 @@
       <c r="D242" s="1">
         <v>69</v>
       </c>
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F242" s="2" t="s">
@@ -6451,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -6474,7 +6473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -6497,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -6520,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -6589,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -6625,7 +6624,7 @@
       <c r="D250" s="1">
         <v>84</v>
       </c>
-      <c r="E250" s="8" t="s">
+      <c r="E250" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F250" s="2" t="s">
@@ -6638,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -6661,7 +6660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -6684,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -6707,7 +6706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -6720,7 +6719,7 @@
       <c r="D254" s="1">
         <v>70</v>
       </c>
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F254" s="2" t="s">
@@ -6733,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -6769,7 +6768,7 @@
       <c r="D256" s="1">
         <v>66</v>
       </c>
-      <c r="E256" s="8" t="s">
+      <c r="E256" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
@@ -6782,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -6805,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -6818,7 +6817,7 @@
       <c r="D258" s="1">
         <v>70</v>
       </c>
-      <c r="E258" s="8" t="s">
+      <c r="E258" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F258" s="2" t="s">
@@ -6831,7 +6830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -6844,7 +6843,7 @@
       <c r="D259" s="1">
         <v>79</v>
       </c>
-      <c r="E259" s="8" t="s">
+      <c r="E259" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F259" s="2" t="s">
@@ -6857,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -6870,7 +6869,7 @@
       <c r="D260" s="1">
         <v>69</v>
       </c>
-      <c r="E260" s="8" t="s">
+      <c r="E260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F260" s="2" t="s">
@@ -6883,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -6919,7 +6918,7 @@
       <c r="D262" s="1">
         <v>83</v>
       </c>
-      <c r="E262" s="8" t="s">
+      <c r="E262" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F262" s="2" t="s">
@@ -6932,7 +6931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -6945,7 +6944,7 @@
       <c r="D263" s="1">
         <v>82</v>
       </c>
-      <c r="E263" s="8" t="s">
+      <c r="E263" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F263" s="2" t="s">
@@ -6958,7 +6957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -6981,7 +6980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -7004,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -7086,7 +7085,7 @@
       <c r="D269" s="1">
         <v>90</v>
       </c>
-      <c r="E269" s="8" t="s">
+      <c r="E269" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F269" s="2" t="s">
@@ -7099,7 +7098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -7112,7 +7111,7 @@
       <c r="D270" s="1">
         <v>82</v>
       </c>
-      <c r="E270" s="8" t="s">
+      <c r="E270" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F270" s="2" t="s">
@@ -7125,7 +7124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -7161,7 +7160,7 @@
       <c r="D272" s="1">
         <v>68</v>
       </c>
-      <c r="E272" s="8" t="s">
+      <c r="E272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F272" s="2" t="s">
@@ -7174,7 +7173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -7187,7 +7186,7 @@
       <c r="D273" s="1">
         <v>71</v>
       </c>
-      <c r="E273" s="8" t="s">
+      <c r="E273" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F273" s="2" t="s">
@@ -7200,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -7213,7 +7212,7 @@
       <c r="D274" s="1">
         <v>69</v>
       </c>
-      <c r="E274" s="8" t="s">
+      <c r="E274" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F274" s="2" t="s">
@@ -7226,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -7272,7 +7271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -7341,7 +7340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -7354,7 +7353,7 @@
       <c r="D280" s="1">
         <v>85</v>
       </c>
-      <c r="E280" s="8" t="s">
+      <c r="E280" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F280" s="2" t="s">
@@ -7367,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -7380,7 +7379,7 @@
       <c r="D281" s="1">
         <v>70</v>
       </c>
-      <c r="E281" s="8" t="s">
+      <c r="E281" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F281" s="2" t="s">
@@ -7393,7 +7392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -7406,7 +7405,7 @@
       <c r="D282" s="1">
         <v>67</v>
       </c>
-      <c r="E282" s="8" t="s">
+      <c r="E282" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F282" s="2" t="s">
@@ -7419,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -7432,7 +7431,7 @@
       <c r="D283" s="1">
         <v>81</v>
       </c>
-      <c r="E283" s="8" t="s">
+      <c r="E283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F283" s="2" t="s">
@@ -7445,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -7458,7 +7457,7 @@
       <c r="D284" s="1">
         <v>69</v>
       </c>
-      <c r="E284" s="8" t="s">
+      <c r="E284" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F284" s="2" t="s">
@@ -7471,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -7484,7 +7483,7 @@
       <c r="D285" s="1">
         <v>68</v>
       </c>
-      <c r="E285" s="8" t="s">
+      <c r="E285" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F285" s="2" t="s">
@@ -7497,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -7533,7 +7532,7 @@
       <c r="D287" s="1">
         <v>68</v>
       </c>
-      <c r="E287" s="8" t="s">
+      <c r="E287" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
@@ -7546,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -7559,7 +7558,7 @@
       <c r="D288" s="1">
         <v>65</v>
       </c>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F288" s="2" t="s">
@@ -7572,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -7595,7 +7594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -7608,7 +7607,7 @@
       <c r="D290" s="1">
         <v>72</v>
       </c>
-      <c r="E290" s="8" t="s">
+      <c r="E290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F290" s="2" t="s">
@@ -7621,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -7634,7 +7633,7 @@
       <c r="D291" s="1">
         <v>72</v>
       </c>
-      <c r="E291" s="8" t="s">
+      <c r="E291" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F291" s="2" t="s">
@@ -7647,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -7660,7 +7659,7 @@
       <c r="D292" s="1">
         <v>69</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F292" s="2" t="s">
@@ -7673,7 +7672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -7686,7 +7685,7 @@
       <c r="D293" s="1">
         <v>68</v>
       </c>
-      <c r="E293" s="8" t="s">
+      <c r="E293" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F293" s="2" t="s">
@@ -7699,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -7745,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -7768,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -7791,7 +7790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -7814,7 +7813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -7837,7 +7836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -7850,7 +7849,7 @@
       <c r="D300" s="1">
         <v>80</v>
       </c>
-      <c r="E300" s="8" t="s">
+      <c r="E300" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F300" s="2" t="s">
@@ -7863,7 +7862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -7886,7 +7885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -7909,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -7955,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -7968,7 +7967,7 @@
       <c r="D305" s="1">
         <v>68</v>
       </c>
-      <c r="E305" s="8" t="s">
+      <c r="E305" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F305" s="2" t="s">
@@ -7981,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -8004,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -8017,7 +8016,7 @@
       <c r="D307" s="1">
         <v>66</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F307" s="2" t="s">
@@ -8030,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -8043,7 +8042,7 @@
       <c r="D308" s="1">
         <v>69</v>
       </c>
-      <c r="E308" s="8" t="s">
+      <c r="E308" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F308" s="2" t="s">
@@ -8056,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -8069,7 +8068,7 @@
       <c r="D309" s="1">
         <v>68</v>
       </c>
-      <c r="E309" s="8" t="s">
+      <c r="E309" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F309" s="2" t="s">
@@ -8082,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -8105,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -8141,7 +8140,7 @@
       <c r="D312" s="1">
         <v>67</v>
       </c>
-      <c r="E312" s="8" t="s">
+      <c r="E312" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F312" s="2" t="s">
@@ -8154,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -8167,7 +8166,7 @@
       <c r="D313" s="1">
         <v>67</v>
       </c>
-      <c r="E313" s="8" t="s">
+      <c r="E313" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F313" s="2" t="s">
@@ -8180,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -8203,7 +8202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -8249,7 +8248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -8262,7 +8261,7 @@
       <c r="D317" s="1">
         <v>69</v>
       </c>
-      <c r="E317" s="8" t="s">
+      <c r="E317" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F317" s="2" t="s">
@@ -8275,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -8298,7 +8297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -8321,7 +8320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -8334,7 +8333,7 @@
       <c r="D320" s="1">
         <v>80</v>
       </c>
-      <c r="E320" s="8" t="s">
+      <c r="E320" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F320" s="2" t="s">
@@ -8347,7 +8346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -8360,7 +8359,7 @@
       <c r="D321" s="1">
         <v>82</v>
       </c>
-      <c r="E321" s="8" t="s">
+      <c r="E321" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F321" s="2" t="s">
@@ -8373,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -8386,7 +8385,7 @@
       <c r="D322" s="1">
         <v>64</v>
       </c>
-      <c r="E322" s="8" t="s">
+      <c r="E322" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F322" s="2" t="s">
@@ -8399,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -8412,7 +8411,7 @@
       <c r="D323" s="1">
         <v>69</v>
       </c>
-      <c r="E323" s="8" t="s">
+      <c r="E323" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F323" s="2" t="s">
@@ -8425,7 +8424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -8448,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -8461,7 +8460,7 @@
       <c r="D325" s="1">
         <v>65</v>
       </c>
-      <c r="E325" s="8" t="s">
+      <c r="E325" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F325" s="2" t="s">
@@ -8474,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -8487,7 +8486,7 @@
       <c r="D326" s="1">
         <v>68</v>
       </c>
-      <c r="E326" s="8" t="s">
+      <c r="E326" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F326" s="2" t="s">
@@ -8500,7 +8499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -8536,7 +8535,7 @@
       <c r="D328" s="1">
         <v>66</v>
       </c>
-      <c r="E328" s="8" t="s">
+      <c r="E328" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F328" s="2" t="s">
@@ -8549,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -8572,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -8595,7 +8594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -8608,7 +8607,7 @@
       <c r="D331" s="1">
         <v>65</v>
       </c>
-      <c r="E331" s="8" t="s">
+      <c r="E331" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F331" s="2" t="s">
@@ -8621,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -8634,7 +8633,7 @@
       <c r="D332" s="1">
         <v>66</v>
       </c>
-      <c r="E332" s="8" t="s">
+      <c r="E332" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F332" s="2" t="s">
@@ -8647,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -8660,7 +8659,7 @@
       <c r="D333" s="1">
         <v>69</v>
       </c>
-      <c r="E333" s="8" t="s">
+      <c r="E333" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F333" s="2" t="s">
@@ -8673,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -8709,7 +8708,7 @@
       <c r="D335" s="1">
         <v>66</v>
       </c>
-      <c r="E335" s="8" t="s">
+      <c r="E335" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F335" s="2" t="s">
@@ -8722,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -8735,7 +8734,7 @@
       <c r="D336" s="1">
         <v>66</v>
       </c>
-      <c r="E336" s="8" t="s">
+      <c r="E336" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F336" s="2" t="s">
@@ -8748,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -8761,7 +8760,7 @@
       <c r="D337" s="1">
         <v>69</v>
       </c>
-      <c r="E337" s="8" t="s">
+      <c r="E337" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F337" s="2" t="s">
@@ -8774,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -8787,7 +8786,7 @@
       <c r="D338" s="1">
         <v>65</v>
       </c>
-      <c r="E338" s="8" t="s">
+      <c r="E338" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F338" s="2" t="s">
@@ -8800,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -8813,7 +8812,7 @@
       <c r="D339" s="1">
         <v>66</v>
       </c>
-      <c r="E339" s="8" t="s">
+      <c r="E339" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F339" s="2" t="s">
@@ -8826,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -8839,7 +8838,7 @@
       <c r="D340" s="1">
         <v>83</v>
       </c>
-      <c r="E340" s="8" t="s">
+      <c r="E340" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F340" s="2" t="s">
@@ -8852,7 +8851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -8865,7 +8864,7 @@
       <c r="D341" s="1">
         <v>66</v>
       </c>
-      <c r="E341" s="8" t="s">
+      <c r="E341" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F341" s="2" t="s">
@@ -8878,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -8891,7 +8890,7 @@
       <c r="D342" s="1">
         <v>67</v>
       </c>
-      <c r="E342" s="8" t="s">
+      <c r="E342" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F342" s="2" t="s">
@@ -8904,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -8986,7 +8985,7 @@
       <c r="D346" s="1">
         <v>64</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E346" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F346" s="2" t="s">
@@ -8999,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -9012,7 +9011,7 @@
       <c r="D347" s="1">
         <v>77</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F347" s="2" t="s">
@@ -9025,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -9038,7 +9037,7 @@
       <c r="D348" s="1">
         <v>79</v>
       </c>
-      <c r="E348" s="8" t="s">
+      <c r="E348" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F348" s="2" t="s">
@@ -9051,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -9097,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -9110,7 +9109,7 @@
       <c r="D351" s="1">
         <v>65</v>
       </c>
-      <c r="E351" s="8" t="s">
+      <c r="E351" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F351" s="2" t="s">
@@ -9123,7 +9122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -9136,7 +9135,7 @@
       <c r="D352" s="1">
         <v>67</v>
       </c>
-      <c r="E352" s="8" t="s">
+      <c r="E352" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F352" s="2" t="s">
@@ -9149,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -9172,7 +9171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -9185,7 +9184,7 @@
       <c r="D354" s="1">
         <v>72</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F354" s="2" t="s">
@@ -9198,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -9211,7 +9210,7 @@
       <c r="D355" s="1">
         <v>66</v>
       </c>
-      <c r="E355" s="8" t="s">
+      <c r="E355" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F355" s="2" t="s">
@@ -9224,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -9247,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -9260,7 +9259,7 @@
       <c r="D357" s="1">
         <v>67</v>
       </c>
-      <c r="E357" s="8" t="s">
+      <c r="E357" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F357" s="2" t="s">
@@ -9273,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -9296,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -9309,7 +9308,7 @@
       <c r="D359" s="1">
         <v>64</v>
       </c>
-      <c r="E359" s="8" t="s">
+      <c r="E359" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F359" s="2" t="s">
@@ -9322,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -9345,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -9358,7 +9357,7 @@
       <c r="D361" s="1">
         <v>67</v>
       </c>
-      <c r="E361" s="8" t="s">
+      <c r="E361" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F361" s="2" t="s">
@@ -9371,7 +9370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -9384,7 +9383,7 @@
       <c r="D362" s="1">
         <v>69</v>
       </c>
-      <c r="E362" s="8" t="s">
+      <c r="E362" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F362" s="2" t="s">
@@ -9397,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -9420,7 +9419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -9433,7 +9432,7 @@
       <c r="D364" s="1">
         <v>65</v>
       </c>
-      <c r="E364" s="8" t="s">
+      <c r="E364" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F364" s="2" t="s">
@@ -9446,7 +9445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -9459,7 +9458,7 @@
       <c r="D365" s="1">
         <v>66</v>
       </c>
-      <c r="E365" s="8" t="s">
+      <c r="E365" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F365" s="2" t="s">
@@ -9472,7 +9471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -9495,7 +9494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -9518,7 +9517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -9541,7 +9540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -9564,7 +9563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -9587,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -9600,7 +9599,7 @@
       <c r="D371" s="1">
         <v>64</v>
       </c>
-      <c r="E371" s="8" t="s">
+      <c r="E371" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F371" s="2" t="s">
@@ -9613,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -9626,7 +9625,7 @@
       <c r="D372" s="1">
         <v>63</v>
       </c>
-      <c r="E372" s="8" t="s">
+      <c r="E372" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F372" s="2" t="s">
@@ -9639,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -9711,7 +9710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -9721,7 +9720,7 @@
       <c r="C376" s="1">
         <v>95</v>
       </c>
-      <c r="E376" s="8" t="s">
+      <c r="E376" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F376" s="2" t="s">
@@ -9734,7 +9733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -9757,7 +9756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -9780,7 +9779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -9803,7 +9802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -9826,7 +9825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -9872,7 +9871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -9895,7 +9894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -9918,7 +9917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -9941,7 +9940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -9964,7 +9963,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -9987,7 +9986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -10010,7 +10009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -10079,7 +10078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -10102,7 +10101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -10125,7 +10124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -10217,7 +10216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -10263,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -10286,7 +10285,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -10309,7 +10308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -10332,7 +10331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -10355,7 +10354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -10401,7 +10400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -10447,7 +10446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -10470,7 +10469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -10493,7 +10492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -10539,7 +10538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -10562,7 +10561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -10608,7 +10607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -10654,7 +10653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -10677,7 +10676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -10700,7 +10699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -10723,7 +10722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -10746,7 +10745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -10769,7 +10768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -10792,7 +10791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -10838,7 +10837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -10861,7 +10860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -10884,7 +10883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -10907,7 +10906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -10930,7 +10929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -10953,7 +10952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -10999,7 +10998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -11022,7 +11021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -11048,7 +11047,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -11071,7 +11070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -11094,7 +11093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -11117,7 +11116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -11140,7 +11139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -11186,7 +11185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -11209,7 +11208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -11232,7 +11231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -11255,7 +11254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -11301,7 +11300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -11324,7 +11323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -11347,7 +11346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -11370,7 +11369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -11393,7 +11392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -11416,7 +11415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -11439,7 +11438,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -11462,7 +11461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -11485,7 +11484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -11508,7 +11507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -11577,7 +11576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -11600,7 +11599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -11623,7 +11622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -11646,7 +11645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -11669,7 +11668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -11692,7 +11691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -11715,7 +11714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -11738,7 +11737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -11761,7 +11760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -11807,7 +11806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -11830,7 +11829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -11853,7 +11852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -11899,7 +11898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -11968,7 +11967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -11991,7 +11990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -12014,7 +12013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -12037,7 +12036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -12060,7 +12059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -12083,7 +12082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -12129,7 +12128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -12152,7 +12151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -12175,7 +12174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -12198,7 +12197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -12244,7 +12243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -12267,7 +12266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -12290,7 +12289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -12359,7 +12358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -12372,7 +12371,7 @@
       <c r="D491" s="1">
         <v>60</v>
       </c>
-      <c r="E491" s="8" t="s">
+      <c r="E491" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F491" s="2" t="s">
@@ -12385,7 +12384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -12398,7 +12397,7 @@
       <c r="D492" s="1">
         <v>62</v>
       </c>
-      <c r="E492" s="8" t="s">
+      <c r="E492" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F492" s="2" t="s">
@@ -12411,7 +12410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -12434,7 +12433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -12447,7 +12446,7 @@
       <c r="D494" s="1">
         <v>62</v>
       </c>
-      <c r="E494" s="8" t="s">
+      <c r="E494" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F494" s="2" t="s">
@@ -12460,7 +12459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -12529,7 +12528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -12552,7 +12551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -12588,7 +12587,7 @@
       <c r="D500" s="1">
         <v>67</v>
       </c>
-      <c r="E500" s="8" t="s">
+      <c r="E500" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F500" s="2" t="s">
@@ -12601,7 +12600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -12624,7 +12623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -12637,7 +12636,7 @@
       <c r="D502" s="1">
         <v>65</v>
       </c>
-      <c r="E502" s="8" t="s">
+      <c r="E502" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F502" s="2" t="s">
@@ -12650,7 +12649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -12673,7 +12672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -12696,7 +12695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -12719,7 +12718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -12742,7 +12741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -12788,7 +12787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -12811,7 +12810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -12834,7 +12833,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -12847,7 +12846,7 @@
       <c r="D511" s="1">
         <v>66</v>
       </c>
-      <c r="E511" s="8" t="s">
+      <c r="E511" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F511" s="2" t="s">
@@ -12860,7 +12859,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -12929,7 +12928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -13021,7 +13020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -13034,7 +13033,7 @@
       <c r="D519" s="1">
         <v>65</v>
       </c>
-      <c r="E519" s="8" t="s">
+      <c r="E519" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F519" s="2" t="s">
@@ -13047,7 +13046,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -13116,7 +13115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -13208,7 +13207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -13244,7 +13243,7 @@
       <c r="D528" s="1">
         <v>64</v>
       </c>
-      <c r="E528" s="8" t="s">
+      <c r="E528" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F528" s="2" t="s">
@@ -13257,7 +13256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -13280,7 +13279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -13303,7 +13302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -13349,7 +13348,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -13395,7 +13394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -13487,7 +13486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -13533,7 +13532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -13602,7 +13601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -13648,7 +13647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -13671,7 +13670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -13694,7 +13693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -13707,7 +13706,7 @@
       <c r="D548" s="1">
         <v>62</v>
       </c>
-      <c r="E548" s="8" t="s">
+      <c r="E548" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F548" s="2" t="s">
@@ -13720,7 +13719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -13733,7 +13732,7 @@
       <c r="D549" s="1">
         <v>61</v>
       </c>
-      <c r="E549" s="8" t="s">
+      <c r="E549" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F549" s="2" t="s">
@@ -13746,7 +13745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -13769,7 +13768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -13838,7 +13837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -13907,7 +13906,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -13930,7 +13929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -13953,7 +13952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -13976,7 +13975,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -13999,7 +13998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -14022,7 +14021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -14035,7 +14034,7 @@
       <c r="D562" s="1">
         <v>61</v>
       </c>
-      <c r="E562" s="8" t="s">
+      <c r="E562" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F562" s="2" t="s">
@@ -14048,7 +14047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -14061,7 +14060,7 @@
       <c r="D563" s="1">
         <v>60</v>
       </c>
-      <c r="E563" s="8" t="s">
+      <c r="E563" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F563" s="2" t="s">
@@ -14074,7 +14073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -14133,7 +14132,7 @@
       <c r="D566" s="1">
         <v>61</v>
       </c>
-      <c r="E566" s="8" t="s">
+      <c r="E566" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F566" s="2" t="s">
@@ -14146,7 +14145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -14169,7 +14168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -14215,7 +14214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -14238,7 +14237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -14261,7 +14260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -14284,7 +14283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -14307,7 +14306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -14330,7 +14329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -14399,7 +14398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -14422,7 +14421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -14435,7 +14434,7 @@
       <c r="D579" s="1">
         <v>61</v>
       </c>
-      <c r="E579" s="8" t="s">
+      <c r="E579" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F579" s="2" t="s">
@@ -14448,7 +14447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -14461,7 +14460,7 @@
       <c r="D580" s="1">
         <v>59</v>
       </c>
-      <c r="E580" s="8" t="s">
+      <c r="E580" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F580" s="2" t="s">
@@ -14474,7 +14473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -14487,7 +14486,7 @@
       <c r="D581" s="1">
         <v>62</v>
       </c>
-      <c r="E581" s="8" t="s">
+      <c r="E581" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F581" s="2" t="s">
@@ -14500,7 +14499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -14569,7 +14568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -14592,7 +14591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -14638,7 +14637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -14661,7 +14660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -14684,7 +14683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -14707,7 +14706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -14730,7 +14729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -14753,7 +14752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -14776,7 +14775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -14799,7 +14798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -14845,7 +14844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -14868,7 +14867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -14891,7 +14890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -14937,7 +14936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -14950,7 +14949,7 @@
       <c r="D601" s="1">
         <v>61</v>
       </c>
-      <c r="E601" s="8" t="s">
+      <c r="E601" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F601" s="2" t="s">
@@ -14963,7 +14962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -15009,7 +15008,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -15032,7 +15031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -15055,7 +15054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -15078,7 +15077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -15124,7 +15123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -15147,7 +15146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -15170,7 +15169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -15193,7 +15192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -15216,7 +15215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -15239,7 +15238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -15262,7 +15261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -15285,7 +15284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -15308,7 +15307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -15331,7 +15330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -15354,7 +15353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -15377,7 +15376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -15400,7 +15399,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -15423,7 +15422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -15446,7 +15445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -15469,7 +15468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -15515,7 +15514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -15538,7 +15537,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -15561,7 +15560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -15607,7 +15606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -15630,7 +15629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -15676,7 +15675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -15699,7 +15698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -15722,7 +15721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -15745,7 +15744,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -15758,7 +15757,7 @@
       <c r="D636" s="1">
         <v>62</v>
       </c>
-      <c r="E636" s="8" t="s">
+      <c r="E636" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F636" s="2" t="s">
@@ -15771,7 +15770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -15794,7 +15793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -15807,7 +15806,7 @@
       <c r="D638" s="1">
         <v>65</v>
       </c>
-      <c r="E638" s="8" t="s">
+      <c r="E638" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F638" s="2" t="s">
@@ -15820,7 +15819,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -15843,7 +15842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -15935,7 +15934,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -15981,7 +15980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -15994,7 +15993,7 @@
       <c r="D646" s="1">
         <v>62</v>
       </c>
-      <c r="E646" s="8" t="s">
+      <c r="E646" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F646" s="2" t="s">
@@ -16007,7 +16006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -16030,7 +16029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -16076,7 +16075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -16099,7 +16098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -16135,7 +16134,7 @@
       <c r="D652" s="1">
         <v>62</v>
       </c>
-      <c r="E652" s="8" t="s">
+      <c r="E652" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F652" s="2" t="s">
@@ -16148,7 +16147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -16171,7 +16170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -16184,7 +16183,7 @@
       <c r="D654" s="1">
         <v>74</v>
       </c>
-      <c r="E654" s="8" t="s">
+      <c r="E654" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F654" s="2" t="s">
@@ -16197,7 +16196,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -16233,7 +16232,7 @@
       <c r="D656" s="1">
         <v>66</v>
       </c>
-      <c r="E656" s="8" t="s">
+      <c r="E656" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F656" s="2" t="s">
@@ -16246,7 +16245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -16269,7 +16268,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -16282,7 +16281,7 @@
       <c r="D658" s="1">
         <v>60</v>
       </c>
-      <c r="E658" s="8" t="s">
+      <c r="E658" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F658" s="2" t="s">
@@ -16295,7 +16294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -16341,7 +16340,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -16377,7 +16376,7 @@
       <c r="D662" s="1">
         <v>61</v>
       </c>
-      <c r="E662" s="8" t="s">
+      <c r="E662" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F662" s="2" t="s">
@@ -16390,7 +16389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -16413,7 +16412,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -16436,7 +16435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -16459,7 +16458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -16482,7 +16481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -16505,7 +16504,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -16551,7 +16550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -16597,7 +16596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -16620,7 +16619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -16643,7 +16642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -16679,7 +16678,7 @@
       <c r="D675" s="1">
         <v>64</v>
       </c>
-      <c r="E675" s="8" t="s">
+      <c r="E675" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F675" s="2" t="s">
@@ -16692,7 +16691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -16715,7 +16714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -16761,7 +16760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -16784,7 +16783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -16807,7 +16806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -16820,7 +16819,7 @@
       <c r="D681" s="1">
         <v>62</v>
       </c>
-      <c r="E681" s="8" t="s">
+      <c r="E681" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F681" s="2" t="s">
@@ -16833,7 +16832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -16879,7 +16878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -16902,7 +16901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -16925,7 +16924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -16961,7 +16960,7 @@
       <c r="D687" s="1">
         <v>64</v>
       </c>
-      <c r="E687" s="8" t="s">
+      <c r="E687" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F687" s="2" t="s">
@@ -16974,7 +16973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -16997,7 +16996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -17020,7 +17019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -17033,7 +17032,7 @@
       <c r="D690" s="1">
         <v>66</v>
       </c>
-      <c r="E690" s="8" t="s">
+      <c r="E690" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F690" s="2" t="s">
@@ -17046,7 +17045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -17059,7 +17058,7 @@
       <c r="D691" s="1">
         <v>70</v>
       </c>
-      <c r="E691" s="8" t="s">
+      <c r="E691" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F691" s="2" t="s">
@@ -17072,7 +17071,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -17095,7 +17094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -17154,7 +17153,7 @@
       <c r="D695" s="1">
         <v>63</v>
       </c>
-      <c r="E695" s="8" t="s">
+      <c r="E695" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F695" s="2" t="s">
@@ -17167,7 +17166,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -17180,7 +17179,7 @@
       <c r="D696" s="1">
         <v>57</v>
       </c>
-      <c r="E696" s="8" t="s">
+      <c r="E696" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F696" s="2" t="s">
@@ -17193,7 +17192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -17206,7 +17205,7 @@
       <c r="D697" s="1">
         <v>57</v>
       </c>
-      <c r="E697" s="8" t="s">
+      <c r="E697" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F697" s="2" t="s">
@@ -17219,7 +17218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -17232,7 +17231,7 @@
       <c r="D698" s="1">
         <v>63</v>
       </c>
-      <c r="E698" s="8" t="s">
+      <c r="E698" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F698" s="2" t="s">
@@ -17245,7 +17244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -17268,7 +17267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -17281,7 +17280,7 @@
       <c r="D700" s="1">
         <v>60</v>
       </c>
-      <c r="E700" s="8" t="s">
+      <c r="E700" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F700" s="2" t="s">
@@ -17294,7 +17293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -17317,7 +17316,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -17330,7 +17329,7 @@
       <c r="D702" s="1">
         <v>59</v>
       </c>
-      <c r="E702" s="8" t="s">
+      <c r="E702" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F702" s="2" t="s">
@@ -17343,7 +17342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -17366,7 +17365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -17389,7 +17388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -17412,7 +17411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -17435,7 +17434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -17448,7 +17447,7 @@
       <c r="D707" s="1">
         <v>66</v>
       </c>
-      <c r="E707" s="8" t="s">
+      <c r="E707" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F707" s="2" t="s">
@@ -17461,7 +17460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -17474,7 +17473,7 @@
       <c r="D708" s="1">
         <v>64</v>
       </c>
-      <c r="E708" s="8" t="s">
+      <c r="E708" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F708" s="2" t="s">
@@ -17487,7 +17486,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -17500,7 +17499,7 @@
       <c r="D709" s="1">
         <v>59</v>
       </c>
-      <c r="E709" s="8" t="s">
+      <c r="E709" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F709" s="2" t="s">
@@ -17513,7 +17512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" s="1">
         <v>710</v>
       </c>
@@ -17559,7 +17558,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" s="1">
         <v>711</v>
       </c>
@@ -17572,7 +17571,7 @@
       <c r="D712" s="1">
         <v>62</v>
       </c>
-      <c r="E712" s="8" t="s">
+      <c r="E712" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F712" s="2" t="s">
@@ -17585,7 +17584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" s="1">
         <v>712</v>
       </c>
@@ -17608,7 +17607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="1">
         <v>713</v>
       </c>
@@ -17621,7 +17620,7 @@
       <c r="D714" s="1">
         <v>61</v>
       </c>
-      <c r="E714" s="8" t="s">
+      <c r="E714" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F714" s="2" t="s">
@@ -17634,7 +17633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="1">
         <v>714</v>
       </c>
@@ -17657,7 +17656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="1">
         <v>715</v>
       </c>
@@ -17680,7 +17679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" s="1">
         <v>716</v>
       </c>
@@ -17703,7 +17702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" s="1">
         <v>717</v>
       </c>
@@ -17726,7 +17725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" s="1">
         <v>718</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" s="1">
         <v>719</v>
       </c>
@@ -17772,7 +17771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" s="1">
         <v>720</v>
       </c>
@@ -17795,7 +17794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" s="1">
         <v>721</v>
       </c>
@@ -17818,7 +17817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" s="1">
         <v>722</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" s="1">
         <v>723</v>
       </c>
@@ -17864,7 +17863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" s="1">
         <v>724</v>
       </c>
@@ -17887,7 +17886,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" s="1">
         <v>725</v>
       </c>
@@ -17910,7 +17909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A727" s="1">
         <v>726</v>
       </c>
@@ -17933,7 +17932,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A728" s="1">
         <v>727</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A729" s="1">
         <v>728</v>
       </c>
@@ -17979,7 +17978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A730" s="1">
         <v>729</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" s="1">
         <v>730</v>
       </c>
@@ -18025,7 +18024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" s="1">
         <v>731</v>
       </c>
@@ -18048,7 +18047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" s="1">
         <v>732</v>
       </c>
@@ -18071,7 +18070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" s="1">
         <v>733</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" s="1">
         <v>734</v>
       </c>
@@ -18117,7 +18116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="1">
         <v>735</v>
       </c>
@@ -18140,7 +18139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="1">
         <v>736</v>
       </c>
@@ -18163,7 +18162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="1">
         <v>737</v>
       </c>
@@ -18186,7 +18185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="1">
         <v>738</v>
       </c>
@@ -18209,7 +18208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="1">
         <v>739</v>
       </c>
@@ -18232,7 +18231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="1">
         <v>740</v>
       </c>
@@ -18255,7 +18254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="1">
         <v>741</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="1">
         <v>742</v>
       </c>
@@ -18301,7 +18300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="1">
         <v>743</v>
       </c>
@@ -18324,7 +18323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="1">
         <v>744</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="1">
         <v>745</v>
       </c>
@@ -18370,7 +18369,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="1">
         <v>746</v>
       </c>
@@ -18393,7 +18392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="1">
         <v>747</v>
       </c>
@@ -18416,7 +18415,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="1">
         <v>748</v>
       </c>
@@ -18439,7 +18438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="1">
         <v>749</v>
       </c>
@@ -18462,7 +18461,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="1">
         <v>750</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="1">
         <v>751</v>
       </c>
@@ -18508,7 +18507,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A753" s="1">
         <v>752</v>
       </c>
@@ -18531,7 +18530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" s="1">
         <v>753</v>
       </c>
@@ -18554,7 +18553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A755" s="1">
         <v>754</v>
       </c>
@@ -18577,7 +18576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A756" s="1">
         <v>755</v>
       </c>
@@ -18600,7 +18599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A757" s="1">
         <v>756</v>
       </c>
@@ -18623,7 +18622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A758" s="1">
         <v>757</v>
       </c>
@@ -18646,7 +18645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A759" s="1">
         <v>758</v>
       </c>
@@ -18669,7 +18668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A760" s="1">
         <v>759</v>
       </c>
@@ -18692,7 +18691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A761" s="1">
         <v>760</v>
       </c>
@@ -18715,7 +18714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A762" s="1">
         <v>761</v>
       </c>
@@ -18738,7 +18737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A763" s="1">
         <v>762</v>
       </c>
@@ -18761,7 +18760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A764" s="1">
         <v>763</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A765" s="1">
         <v>764</v>
       </c>
@@ -18807,7 +18806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A766" s="1">
         <v>765</v>
       </c>
@@ -18830,7 +18829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A767" s="1">
         <v>766</v>
       </c>
@@ -18853,7 +18852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A768" s="1">
         <v>767</v>
       </c>
@@ -18876,7 +18875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A769" s="1">
         <v>768</v>
       </c>
@@ -18899,7 +18898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A770" s="1">
         <v>769</v>
       </c>
@@ -18922,7 +18921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A771" s="1">
         <v>770</v>
       </c>
@@ -18945,7 +18944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A772" s="1">
         <v>771</v>
       </c>
@@ -18968,7 +18967,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A773" s="1">
         <v>772</v>
       </c>
@@ -18991,7 +18990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" s="1">
         <v>773</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A775" s="1">
         <v>774</v>
       </c>
@@ -19037,7 +19036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A776" s="1">
         <v>775</v>
       </c>
@@ -19060,7 +19059,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A777" s="1">
         <v>776</v>
       </c>
@@ -19083,7 +19082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A778" s="1">
         <v>777</v>
       </c>
@@ -19106,7 +19105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A779" s="1">
         <v>778</v>
       </c>
@@ -19129,7 +19128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A780" s="1">
         <v>779</v>
       </c>
@@ -19152,7 +19151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A781" s="1">
         <v>780</v>
       </c>
@@ -19175,7 +19174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A782" s="1">
         <v>781</v>
       </c>
@@ -19198,7 +19197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A783" s="1">
         <v>782</v>
       </c>
@@ -19221,7 +19220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A784" s="1">
         <v>783</v>
       </c>
@@ -19244,7 +19243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A785" s="1">
         <v>784</v>
       </c>
@@ -19267,7 +19266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A786" s="1">
         <v>785</v>
       </c>
@@ -19290,7 +19289,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A787" s="1">
         <v>786</v>
       </c>
@@ -19313,7 +19312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A788" s="1">
         <v>787</v>
       </c>
@@ -19336,7 +19335,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A789" s="1">
         <v>788</v>
       </c>
@@ -19359,7 +19358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A790" s="1">
         <v>789</v>
       </c>
@@ -19382,7 +19381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A791" s="1">
         <v>790</v>
       </c>
@@ -19395,7 +19394,7 @@
       <c r="D791" s="1">
         <v>62</v>
       </c>
-      <c r="E791" s="8" t="s">
+      <c r="E791" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F791" s="2" t="s">
@@ -19408,7 +19407,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A792" s="1">
         <v>791</v>
       </c>
@@ -19431,7 +19430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A793" s="1">
         <v>792</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" s="1">
         <v>793</v>
       </c>
@@ -19477,7 +19476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A795" s="1">
         <v>794</v>
       </c>
@@ -19490,7 +19489,7 @@
       <c r="D795" s="1">
         <v>59</v>
       </c>
-      <c r="E795" s="8" t="s">
+      <c r="E795" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F795" s="2" t="s">
@@ -19503,7 +19502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A796" s="1">
         <v>795</v>
       </c>
@@ -19526,7 +19525,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A797" s="1">
         <v>796</v>
       </c>
@@ -19539,7 +19538,7 @@
       <c r="D797" s="1">
         <v>58</v>
       </c>
-      <c r="E797" s="8" t="s">
+      <c r="E797" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F797" s="2" t="s">
@@ -19552,7 +19551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A798" s="1">
         <v>797</v>
       </c>
@@ -19565,7 +19564,7 @@
       <c r="D798" s="1">
         <v>58</v>
       </c>
-      <c r="E798" s="8" t="s">
+      <c r="E798" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F798" s="2" t="s">
@@ -19578,7 +19577,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A799" s="1">
         <v>798</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A800" s="1">
         <v>799</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A801" s="1">
         <v>800</v>
       </c>
@@ -19647,7 +19646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A802" s="1">
         <v>801</v>
       </c>
@@ -19660,7 +19659,7 @@
       <c r="D802" s="1">
         <v>65</v>
       </c>
-      <c r="E802" s="8" t="s">
+      <c r="E802" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F802" s="2" t="s">
@@ -19673,7 +19672,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A803" s="1">
         <v>802</v>
       </c>
@@ -19696,7 +19695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A804" s="1">
         <v>803</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A805" s="1">
         <v>804</v>
       </c>
@@ -19742,7 +19741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A806" s="1">
         <v>805</v>
       </c>
@@ -19765,7 +19764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A807" s="1">
         <v>806</v>
       </c>
@@ -19778,7 +19777,7 @@
       <c r="D807" s="1">
         <v>59</v>
       </c>
-      <c r="E807" s="8" t="s">
+      <c r="E807" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F807" s="2" t="s">
@@ -19791,7 +19790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A808" s="1">
         <v>807</v>
       </c>
@@ -19804,7 +19803,7 @@
       <c r="D808" s="1">
         <v>58</v>
       </c>
-      <c r="E808" s="8" t="s">
+      <c r="E808" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F808" s="2" t="s">
@@ -19817,7 +19816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A809" s="1">
         <v>808</v>
       </c>
@@ -19840,7 +19839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A810" s="1">
         <v>809</v>
       </c>
@@ -19863,7 +19862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A811" s="1">
         <v>810</v>
       </c>
@@ -19886,7 +19885,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A812" s="1">
         <v>811</v>
       </c>
@@ -19909,7 +19908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A813" s="1">
         <v>812</v>
       </c>
@@ -19932,7 +19931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" s="1">
         <v>813</v>
       </c>
@@ -19955,7 +19954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A815" s="1">
         <v>814</v>
       </c>
@@ -19968,7 +19967,7 @@
       <c r="D815" s="1">
         <v>58</v>
       </c>
-      <c r="E815" s="8" t="s">
+      <c r="E815" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F815" s="2" t="s">
@@ -19981,7 +19980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A816" s="1">
         <v>815</v>
       </c>
@@ -20004,7 +20003,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A817" s="1">
         <v>816</v>
       </c>
@@ -20027,7 +20026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A818" s="1">
         <v>817</v>
       </c>
@@ -20050,7 +20049,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A819" s="1">
         <v>818</v>
       </c>
@@ -20073,7 +20072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A820" s="1">
         <v>819</v>
       </c>
@@ -20096,7 +20095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A821" s="1">
         <v>820</v>
       </c>
@@ -20119,7 +20118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A822" s="1">
         <v>821</v>
       </c>
@@ -20132,7 +20131,7 @@
       <c r="D822" s="1">
         <v>57</v>
       </c>
-      <c r="E822" s="8" t="s">
+      <c r="E822" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F822" s="2" t="s">
@@ -20145,7 +20144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A823" s="1">
         <v>822</v>
       </c>
@@ -20168,7 +20167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A824" s="1">
         <v>823</v>
       </c>
@@ -20191,7 +20190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A825" s="1">
         <v>824</v>
       </c>
@@ -20214,7 +20213,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A826" s="1">
         <v>825</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A827" s="1">
         <v>826</v>
       </c>
@@ -20260,7 +20259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A828" s="1">
         <v>827</v>
       </c>
@@ -20283,7 +20282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A829" s="1">
         <v>828</v>
       </c>
@@ -20306,7 +20305,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A830" s="1">
         <v>829</v>
       </c>
@@ -20319,7 +20318,7 @@
       <c r="D830" s="1">
         <v>58</v>
       </c>
-      <c r="E830" s="8" t="s">
+      <c r="E830" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F830" s="2" t="s">
@@ -20332,7 +20331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A831" s="1">
         <v>830</v>
       </c>
@@ -20355,7 +20354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A832" s="1">
         <v>831</v>
       </c>
@@ -20378,7 +20377,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A833" s="1">
         <v>832</v>
       </c>
@@ -20401,7 +20400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" s="1">
         <v>833</v>
       </c>
@@ -20424,7 +20423,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A835" s="1">
         <v>834</v>
       </c>
@@ -20447,7 +20446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A836" s="1">
         <v>835</v>
       </c>
@@ -20470,7 +20469,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A837" s="1">
         <v>836</v>
       </c>
@@ -20493,7 +20492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A838" s="1">
         <v>837</v>
       </c>
@@ -20516,7 +20515,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A839" s="1">
         <v>838</v>
       </c>
@@ -20539,7 +20538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A840" s="1">
         <v>839</v>
       </c>
@@ -20562,7 +20561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A841" s="1">
         <v>840</v>
       </c>
@@ -20585,7 +20584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A842" s="1">
         <v>841</v>
       </c>
@@ -20608,7 +20607,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A843" s="1">
         <v>842</v>
       </c>
@@ -20631,7 +20630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A844" s="1">
         <v>843</v>
       </c>
@@ -20654,7 +20653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A845" s="1">
         <v>844</v>
       </c>
@@ -20677,7 +20676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A846" s="1">
         <v>845</v>
       </c>
@@ -20700,7 +20699,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A847" s="1">
         <v>846</v>
       </c>
@@ -20723,7 +20722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A848" s="1">
         <v>847</v>
       </c>
@@ -20746,7 +20745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A849" s="1">
         <v>848</v>
       </c>
@@ -20769,7 +20768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A850" s="1">
         <v>849</v>
       </c>
@@ -20792,7 +20791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A851" s="1">
         <v>850</v>
       </c>
@@ -20815,7 +20814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A852" s="1">
         <v>851</v>
       </c>
@@ -20828,7 +20827,7 @@
       <c r="D852" s="1">
         <v>58</v>
       </c>
-      <c r="E852" s="8" t="s">
+      <c r="E852" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F852" s="2" t="s">
@@ -20841,7 +20840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A853" s="1">
         <v>852</v>
       </c>
@@ -20854,7 +20853,7 @@
       <c r="D853" s="1">
         <v>60</v>
       </c>
-      <c r="E853" s="8" t="s">
+      <c r="E853" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F853" s="2" t="s">
@@ -20867,7 +20866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" s="1">
         <v>853</v>
       </c>
@@ -20890,7 +20889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A855" s="1">
         <v>854</v>
       </c>
@@ -20913,7 +20912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A856" s="1">
         <v>855</v>
       </c>
@@ -20936,7 +20935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A857" s="1">
         <v>856</v>
       </c>
@@ -20959,7 +20958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A858" s="1">
         <v>857</v>
       </c>
@@ -20982,7 +20981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A859" s="1">
         <v>858</v>
       </c>
@@ -21005,7 +21004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A860" s="1">
         <v>859</v>
       </c>
@@ -21028,7 +21027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A861" s="1">
         <v>860</v>
       </c>
@@ -21051,7 +21050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A862" s="1">
         <v>861</v>
       </c>
@@ -21074,7 +21073,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A863" s="1">
         <v>862</v>
       </c>
@@ -21097,7 +21096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A864" s="1">
         <v>863</v>
       </c>
@@ -21120,7 +21119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A865" s="1">
         <v>864</v>
       </c>
@@ -21143,7 +21142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A866" s="1">
         <v>865</v>
       </c>
@@ -21166,7 +21165,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A867" s="1">
         <v>866</v>
       </c>
@@ -21189,7 +21188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A868" s="1">
         <v>867</v>
       </c>
@@ -21212,7 +21211,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A869" s="1">
         <v>868</v>
       </c>
@@ -21235,7 +21234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="870" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A870" s="1">
         <v>869</v>
       </c>
@@ -21258,7 +21257,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A871" s="1">
         <v>870</v>
       </c>
@@ -21271,7 +21270,7 @@
       <c r="D871" s="1">
         <v>58</v>
       </c>
-      <c r="E871" s="8" t="s">
+      <c r="E871" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F871" s="2" t="s">
@@ -21284,7 +21283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="872" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A872" s="1">
         <v>871</v>
       </c>
@@ -21297,7 +21296,7 @@
       <c r="D872" s="1">
         <v>58</v>
       </c>
-      <c r="E872" s="8" t="s">
+      <c r="E872" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F872" s="2" t="s">
@@ -21310,7 +21309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="873" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A873" s="1">
         <v>872</v>
       </c>
@@ -21333,7 +21332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="874" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" s="1">
         <v>873</v>
       </c>
@@ -21356,7 +21355,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="875" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A875" s="1">
         <v>874</v>
       </c>
@@ -21379,7 +21378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="876" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A876" s="1">
         <v>875</v>
       </c>
@@ -21402,7 +21401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="877" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A877" s="1">
         <v>876</v>
       </c>
@@ -21425,7 +21424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="878" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A878" s="1">
         <v>877</v>
       </c>
@@ -21448,7 +21447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="879" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A879" s="1">
         <v>878</v>
       </c>
@@ -21471,7 +21470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="880" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A880" s="1">
         <v>879</v>
       </c>
@@ -21494,7 +21493,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="881" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A881" s="1">
         <v>880</v>
       </c>
@@ -21517,7 +21516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="882" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A882" s="1">
         <v>881</v>
       </c>
@@ -21540,7 +21539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="883" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A883" s="1">
         <v>882</v>
       </c>
@@ -21553,7 +21552,7 @@
       <c r="D883" s="1">
         <v>68</v>
       </c>
-      <c r="E883" s="8" t="s">
+      <c r="E883" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F883" s="2" t="s">
